--- a/CP Java Milestone 2 QB's.xlsx
+++ b/CP Java Milestone 2 QB's.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPS\Vindhya\wipro\25SUB4530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB2E7DE-ED56-4566-BC5E-3F62A3337566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DBFCB2-EE27-46B0-8FD4-352DF5C2AC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="788" activeTab="4" xr2:uid="{D87C16C7-7877-4DFD-96AE-9EF7A8CD9A36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="788" activeTab="1" xr2:uid="{D87C16C7-7877-4DFD-96AE-9EF7A8CD9A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 2 Topics" sheetId="1" r:id="rId1"/>
@@ -5772,6 +5772,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5840,19 +5853,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6320,10 +6320,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67"/>
+      <c r="C1" s="72"/>
     </row>
     <row r="2" spans="1:3" ht="16">
       <c r="A2" s="1" t="s">
@@ -6356,99 +6356,99 @@
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="73">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
-      <c r="A6" s="64">
+      <c r="A6" s="69">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="74"/>
     </row>
     <row r="7" spans="1:3" ht="16">
-      <c r="A7" s="65"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="74"/>
     </row>
     <row r="8" spans="1:3" ht="16">
-      <c r="A8" s="65"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="74"/>
     </row>
     <row r="9" spans="1:3" ht="16">
-      <c r="A9" s="65"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:3" ht="16">
-      <c r="A10" s="65"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="74"/>
     </row>
     <row r="11" spans="1:3" ht="16">
-      <c r="A11" s="64">
+      <c r="A11" s="69">
         <v>1.2</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:3" ht="16">
-      <c r="A12" s="65"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="74"/>
     </row>
     <row r="13" spans="1:3" ht="16">
-      <c r="A13" s="65"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14" spans="1:3" ht="16">
-      <c r="A14" s="64">
+      <c r="A14" s="69">
         <v>1.4</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="74"/>
     </row>
     <row r="15" spans="1:3" ht="16">
-      <c r="A15" s="65"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="74"/>
     </row>
     <row r="16" spans="1:3" ht="16">
-      <c r="A16" s="65"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="74"/>
     </row>
     <row r="17" spans="1:3" ht="16">
-      <c r="A17" s="66"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="74"/>
     </row>
     <row r="18" spans="1:3" ht="16">
       <c r="A18" s="9">
@@ -6457,99 +6457,99 @@
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="68">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16">
-      <c r="A19" s="64">
+      <c r="A19" s="69">
         <v>2.1</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="68"/>
     </row>
     <row r="20" spans="1:3" ht="16">
-      <c r="A20" s="65"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="68"/>
     </row>
     <row r="21" spans="1:3" ht="16">
-      <c r="A21" s="65"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="68"/>
     </row>
     <row r="22" spans="1:3" ht="16">
-      <c r="A22" s="66"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="68"/>
     </row>
     <row r="23" spans="1:3" ht="16">
-      <c r="A23" s="64">
+      <c r="A23" s="69">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="68"/>
     </row>
     <row r="24" spans="1:3" ht="16">
-      <c r="A24" s="65"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="68"/>
     </row>
     <row r="25" spans="1:3" ht="16">
-      <c r="A25" s="65"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="68"/>
     </row>
     <row r="26" spans="1:3" ht="16">
-      <c r="A26" s="66"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="68"/>
     </row>
     <row r="27" spans="1:3" ht="16">
-      <c r="A27" s="64">
+      <c r="A27" s="69">
         <v>2.6</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="68"/>
     </row>
     <row r="28" spans="1:3" ht="16">
-      <c r="A28" s="65"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="68"/>
     </row>
     <row r="29" spans="1:3" ht="16">
-      <c r="A29" s="65"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="68"/>
     </row>
     <row r="30" spans="1:3" ht="16">
-      <c r="A30" s="66"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="68"/>
     </row>
     <row r="31" spans="1:3" ht="16">
       <c r="A31" s="9">
@@ -6558,62 +6558,62 @@
       <c r="B31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="61">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16">
-      <c r="A32" s="52">
+      <c r="A32" s="57">
         <v>3.1</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="57"/>
+      <c r="C32" s="62"/>
     </row>
     <row r="33" spans="1:3" ht="16">
-      <c r="A33" s="52"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="62"/>
     </row>
     <row r="34" spans="1:3" ht="16">
-      <c r="A34" s="52"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="62"/>
     </row>
     <row r="35" spans="1:3" ht="16">
-      <c r="A35" s="52">
+      <c r="A35" s="57">
         <v>3.2</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="57"/>
+      <c r="C35" s="62"/>
     </row>
     <row r="36" spans="1:3" ht="16">
-      <c r="A36" s="52"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="57"/>
+      <c r="C36" s="62"/>
     </row>
     <row r="37" spans="1:3" ht="16">
-      <c r="A37" s="52"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="57"/>
+      <c r="C37" s="62"/>
     </row>
     <row r="38" spans="1:3" ht="16">
-      <c r="A38" s="52"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="62"/>
     </row>
     <row r="39" spans="1:3" ht="16">
       <c r="A39" s="18">
@@ -6622,7 +6622,7 @@
       <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="58"/>
+      <c r="C39" s="63"/>
     </row>
     <row r="40" spans="1:3" ht="16">
       <c r="A40" s="20">
@@ -6631,60 +6631,60 @@
       <c r="B40" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16">
-      <c r="A41" s="47">
+      <c r="A41" s="52">
         <v>4.2</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="57"/>
+      <c r="C41" s="62"/>
     </row>
     <row r="42" spans="1:3" ht="16">
-      <c r="A42" s="48"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="57"/>
+      <c r="C42" s="62"/>
     </row>
     <row r="43" spans="1:3" ht="16">
-      <c r="A43" s="48"/>
+      <c r="A43" s="53"/>
       <c r="B43" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="62"/>
     </row>
     <row r="44" spans="1:3" ht="16">
-      <c r="A44" s="48"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="57"/>
+      <c r="C44" s="62"/>
     </row>
     <row r="45" spans="1:3" ht="16">
-      <c r="A45" s="48"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="57"/>
+      <c r="C45" s="62"/>
     </row>
     <row r="46" spans="1:3" ht="16">
-      <c r="A46" s="48"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="62"/>
     </row>
     <row r="47" spans="1:3" ht="16">
-      <c r="A47" s="60"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="57"/>
+      <c r="C47" s="62"/>
     </row>
     <row r="48" spans="1:3" ht="16">
       <c r="A48" s="20">
@@ -6693,7 +6693,7 @@
       <c r="B48" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="57"/>
+      <c r="C48" s="62"/>
     </row>
     <row r="49" spans="1:3" ht="16">
       <c r="A49" s="20">
@@ -6702,7 +6702,7 @@
       <c r="B49" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="57"/>
+      <c r="C49" s="62"/>
     </row>
     <row r="50" spans="1:3" ht="16">
       <c r="A50" s="9">
@@ -6711,23 +6711,23 @@
       <c r="B50" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="57"/>
+      <c r="C50" s="62"/>
     </row>
     <row r="51" spans="1:3" ht="16">
-      <c r="A51" s="61">
+      <c r="A51" s="66">
         <v>5.0999999999999996</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="57"/>
+      <c r="C51" s="62"/>
     </row>
     <row r="52" spans="1:3" ht="16">
-      <c r="A52" s="62"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="58"/>
+      <c r="C52" s="63"/>
     </row>
     <row r="53" spans="1:3" ht="16">
       <c r="A53" s="9">
@@ -6736,83 +6736,83 @@
       <c r="B53" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16">
-      <c r="A54" s="52">
+      <c r="A54" s="57">
         <v>6.1</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="57"/>
+      <c r="C54" s="62"/>
     </row>
     <row r="55" spans="1:3" ht="16">
-      <c r="A55" s="52"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="57"/>
+      <c r="C55" s="62"/>
     </row>
     <row r="56" spans="1:3" ht="16">
-      <c r="A56" s="52"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="57"/>
+      <c r="C56" s="62"/>
     </row>
     <row r="57" spans="1:3" ht="16">
-      <c r="A57" s="52"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="57"/>
+      <c r="C57" s="62"/>
     </row>
     <row r="58" spans="1:3" ht="16">
-      <c r="A58" s="52"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="57"/>
+      <c r="C58" s="62"/>
     </row>
     <row r="59" spans="1:3" ht="16">
-      <c r="A59" s="52"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="57"/>
+      <c r="C59" s="62"/>
     </row>
     <row r="60" spans="1:3" ht="16">
-      <c r="A60" s="52">
+      <c r="A60" s="57">
         <v>6.2</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="57"/>
+      <c r="C60" s="62"/>
     </row>
     <row r="61" spans="1:3" ht="16">
-      <c r="A61" s="52"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="57"/>
+      <c r="C61" s="62"/>
     </row>
     <row r="62" spans="1:3" ht="16">
-      <c r="A62" s="52"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="57"/>
+      <c r="C62" s="62"/>
     </row>
     <row r="63" spans="1:3" ht="16">
-      <c r="A63" s="52"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="57"/>
+      <c r="C63" s="62"/>
     </row>
     <row r="64" spans="1:3" ht="16">
       <c r="A64" s="9">
@@ -6821,30 +6821,30 @@
       <c r="B64" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="57"/>
+      <c r="C64" s="62"/>
     </row>
     <row r="65" spans="1:3" ht="16">
-      <c r="A65" s="52">
+      <c r="A65" s="57">
         <v>7.1</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="57"/>
+      <c r="C65" s="62"/>
     </row>
     <row r="66" spans="1:3" ht="16">
-      <c r="A66" s="52"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="57"/>
+      <c r="C66" s="62"/>
     </row>
     <row r="67" spans="1:3" ht="16">
-      <c r="A67" s="52"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="58"/>
+      <c r="C67" s="63"/>
     </row>
     <row r="68" spans="1:3" ht="16">
       <c r="A68" s="9">
@@ -6853,78 +6853,78 @@
       <c r="B68" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="51">
+      <c r="C68" s="56">
         <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16">
-      <c r="A69" s="52">
+      <c r="A69" s="57">
         <v>8.1</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="51"/>
+      <c r="C69" s="56"/>
     </row>
     <row r="70" spans="1:3" ht="16">
-      <c r="A70" s="52"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="51"/>
+      <c r="C70" s="56"/>
     </row>
     <row r="71" spans="1:3" ht="16">
-      <c r="A71" s="52"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="51"/>
+      <c r="C71" s="56"/>
     </row>
     <row r="72" spans="1:3" ht="16">
-      <c r="A72" s="52">
+      <c r="A72" s="57">
         <v>8.1999999999999993</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="51"/>
+      <c r="C72" s="56"/>
     </row>
     <row r="73" spans="1:3" ht="16">
-      <c r="A73" s="52"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="51"/>
+      <c r="C73" s="56"/>
     </row>
     <row r="74" spans="1:3" ht="16">
-      <c r="A74" s="52"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="51"/>
+      <c r="C74" s="56"/>
     </row>
     <row r="75" spans="1:3" ht="16">
-      <c r="A75" s="52">
+      <c r="A75" s="57">
         <v>8.3000000000000007</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="51"/>
+      <c r="C75" s="56"/>
     </row>
     <row r="76" spans="1:3" ht="16">
-      <c r="A76" s="52"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="51"/>
+      <c r="C76" s="56"/>
     </row>
     <row r="77" spans="1:3" ht="16">
-      <c r="A77" s="52"/>
+      <c r="A77" s="57"/>
       <c r="B77" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="51"/>
+      <c r="C77" s="56"/>
     </row>
     <row r="78" spans="1:3" ht="16">
       <c r="A78" s="17">
@@ -6933,7 +6933,7 @@
       <c r="B78" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="51"/>
+      <c r="C78" s="56"/>
     </row>
     <row r="79" spans="1:3" ht="16">
       <c r="A79" s="23">
@@ -6942,322 +6942,322 @@
       <c r="B79" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="59">
+      <c r="C79" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16">
-      <c r="A80" s="47">
+      <c r="A80" s="52">
         <v>9.1</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="50"/>
+      <c r="C80" s="55"/>
     </row>
     <row r="81" spans="1:3" ht="16">
-      <c r="A81" s="48"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="50"/>
+      <c r="C81" s="55"/>
     </row>
     <row r="82" spans="1:3" ht="16">
-      <c r="A82" s="48"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="50"/>
+      <c r="C82" s="55"/>
     </row>
     <row r="83" spans="1:3" ht="16">
-      <c r="A83" s="48"/>
+      <c r="A83" s="53"/>
       <c r="B83" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="50"/>
+      <c r="C83" s="55"/>
     </row>
     <row r="84" spans="1:3" ht="16">
-      <c r="A84" s="48"/>
+      <c r="A84" s="53"/>
       <c r="B84" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="50"/>
+      <c r="C84" s="55"/>
     </row>
     <row r="85" spans="1:3" ht="16">
-      <c r="A85" s="48"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="50"/>
+      <c r="C85" s="55"/>
     </row>
     <row r="86" spans="1:3" ht="16">
-      <c r="A86" s="54"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="50"/>
+      <c r="C86" s="55"/>
     </row>
     <row r="87" spans="1:3" ht="16">
-      <c r="A87" s="47">
+      <c r="A87" s="52">
         <v>9.1999999999999993</v>
       </c>
       <c r="B87" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="50"/>
+      <c r="C87" s="55"/>
     </row>
     <row r="88" spans="1:3" ht="16">
-      <c r="A88" s="48"/>
+      <c r="A88" s="53"/>
       <c r="B88" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="50"/>
+      <c r="C88" s="55"/>
     </row>
     <row r="89" spans="1:3" ht="16">
-      <c r="A89" s="48"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="50"/>
+      <c r="C89" s="55"/>
     </row>
     <row r="90" spans="1:3" ht="16">
-      <c r="A90" s="54"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="50"/>
+      <c r="C90" s="55"/>
     </row>
     <row r="91" spans="1:3" ht="16">
-      <c r="A91" s="47">
+      <c r="A91" s="52">
         <v>9.3000000000000007</v>
       </c>
       <c r="B91" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="50"/>
+      <c r="C91" s="55"/>
     </row>
     <row r="92" spans="1:3" ht="16">
-      <c r="A92" s="48"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="50"/>
+      <c r="C92" s="55"/>
     </row>
     <row r="93" spans="1:3" ht="16">
-      <c r="A93" s="54"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="50"/>
+      <c r="C93" s="55"/>
     </row>
     <row r="94" spans="1:3" ht="16">
-      <c r="A94" s="47">
+      <c r="A94" s="52">
         <v>9.4</v>
       </c>
       <c r="B94" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="50"/>
+      <c r="C94" s="55"/>
     </row>
     <row r="95" spans="1:3" ht="16">
-      <c r="A95" s="48"/>
+      <c r="A95" s="53"/>
       <c r="B95" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="50"/>
+      <c r="C95" s="55"/>
     </row>
     <row r="96" spans="1:3" ht="16">
-      <c r="A96" s="54"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="55"/>
+      <c r="C96" s="60"/>
     </row>
     <row r="97" spans="1:3" ht="16">
-      <c r="A97" s="47">
+      <c r="A97" s="52">
         <v>9.5</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="49">
+      <c r="C97" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16">
-      <c r="A98" s="48"/>
+      <c r="A98" s="53"/>
       <c r="B98" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="50"/>
+      <c r="C98" s="55"/>
     </row>
     <row r="99" spans="1:3" ht="16">
-      <c r="A99" s="48"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="50"/>
+      <c r="C99" s="55"/>
     </row>
     <row r="100" spans="1:3" ht="16">
-      <c r="A100" s="54"/>
+      <c r="A100" s="59"/>
       <c r="B100" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="50"/>
+      <c r="C100" s="55"/>
     </row>
     <row r="101" spans="1:3" ht="16">
-      <c r="A101" s="47">
+      <c r="A101" s="52">
         <v>9.6</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="50"/>
+      <c r="C101" s="55"/>
     </row>
     <row r="102" spans="1:3" ht="16">
-      <c r="A102" s="48"/>
+      <c r="A102" s="53"/>
       <c r="B102" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="50"/>
+      <c r="C102" s="55"/>
     </row>
     <row r="103" spans="1:3" ht="16">
-      <c r="A103" s="48"/>
+      <c r="A103" s="53"/>
       <c r="B103" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="50"/>
+      <c r="C103" s="55"/>
     </row>
     <row r="104" spans="1:3" ht="16">
-      <c r="A104" s="48"/>
+      <c r="A104" s="53"/>
       <c r="B104" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="50"/>
+      <c r="C104" s="55"/>
     </row>
     <row r="105" spans="1:3" ht="16">
-      <c r="A105" s="54"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="55"/>
+      <c r="C105" s="60"/>
     </row>
     <row r="106" spans="1:3" ht="16">
-      <c r="A106" s="47">
+      <c r="A106" s="52">
         <v>9.6999999999999993</v>
       </c>
       <c r="B106" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="49">
+      <c r="C106" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16">
-      <c r="A107" s="48"/>
+      <c r="A107" s="53"/>
       <c r="B107" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="50"/>
+      <c r="C107" s="55"/>
     </row>
     <row r="108" spans="1:3" ht="16">
-      <c r="A108" s="54"/>
+      <c r="A108" s="59"/>
       <c r="B108" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="50"/>
+      <c r="C108" s="55"/>
     </row>
     <row r="109" spans="1:3" ht="16">
-      <c r="A109" s="47">
+      <c r="A109" s="52">
         <v>9.8000000000000007</v>
       </c>
       <c r="B109" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="50"/>
+      <c r="C109" s="55"/>
     </row>
     <row r="110" spans="1:3" ht="16">
-      <c r="A110" s="48"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="50"/>
+      <c r="C110" s="55"/>
     </row>
     <row r="111" spans="1:3" ht="16">
-      <c r="A111" s="54"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="50"/>
+      <c r="C111" s="55"/>
     </row>
     <row r="112" spans="1:3" ht="16">
-      <c r="A112" s="47">
+      <c r="A112" s="52">
         <v>9.9</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="50"/>
+      <c r="C112" s="55"/>
     </row>
     <row r="113" spans="1:3" ht="16">
-      <c r="A113" s="48"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="50"/>
+      <c r="C113" s="55"/>
     </row>
     <row r="114" spans="1:3" ht="16">
-      <c r="A114" s="48"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="50"/>
+      <c r="C114" s="55"/>
     </row>
     <row r="115" spans="1:3" ht="16">
-      <c r="A115" s="54"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="55"/>
+      <c r="C115" s="60"/>
     </row>
     <row r="116" spans="1:3" ht="16">
-      <c r="A116" s="49">
+      <c r="A116" s="54">
         <v>9.1</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="49">
+      <c r="C116" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16">
-      <c r="A117" s="50"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="50"/>
+      <c r="C117" s="55"/>
     </row>
     <row r="118" spans="1:3" ht="16">
-      <c r="A118" s="50"/>
+      <c r="A118" s="55"/>
       <c r="B118" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="50"/>
+      <c r="C118" s="55"/>
     </row>
     <row r="119" spans="1:3" ht="16">
-      <c r="A119" s="50"/>
+      <c r="A119" s="55"/>
       <c r="B119" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="50"/>
+      <c r="C119" s="55"/>
     </row>
     <row r="120" spans="1:3" ht="16">
-      <c r="A120" s="55"/>
+      <c r="A120" s="60"/>
       <c r="B120" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C120" s="55"/>
+      <c r="C120" s="60"/>
     </row>
     <row r="121" spans="1:3" ht="16">
       <c r="A121" s="23">
@@ -7266,319 +7266,319 @@
       <c r="B121" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="49">
+      <c r="C121" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="16">
-      <c r="A122" s="47">
+      <c r="A122" s="52">
         <v>10.1</v>
       </c>
       <c r="B122" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="50"/>
+      <c r="C122" s="55"/>
     </row>
     <row r="123" spans="1:3" ht="16">
-      <c r="A123" s="48"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C123" s="50"/>
+      <c r="C123" s="55"/>
     </row>
     <row r="124" spans="1:3" ht="16">
-      <c r="A124" s="48"/>
+      <c r="A124" s="53"/>
       <c r="B124" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="50"/>
+      <c r="C124" s="55"/>
     </row>
     <row r="125" spans="1:3" ht="16">
-      <c r="A125" s="48"/>
+      <c r="A125" s="53"/>
       <c r="B125" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="50"/>
+      <c r="C125" s="55"/>
     </row>
     <row r="126" spans="1:3" ht="16">
-      <c r="A126" s="48"/>
+      <c r="A126" s="53"/>
       <c r="B126" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="50"/>
+      <c r="C126" s="55"/>
     </row>
     <row r="127" spans="1:3" ht="16">
-      <c r="A127" s="48"/>
+      <c r="A127" s="53"/>
       <c r="B127" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="50"/>
+      <c r="C127" s="55"/>
     </row>
     <row r="128" spans="1:3" ht="16">
-      <c r="A128" s="48"/>
+      <c r="A128" s="53"/>
       <c r="B128" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="50"/>
+      <c r="C128" s="55"/>
     </row>
     <row r="129" spans="1:3" ht="16">
-      <c r="A129" s="48"/>
+      <c r="A129" s="53"/>
       <c r="B129" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="50"/>
+      <c r="C129" s="55"/>
     </row>
     <row r="130" spans="1:3" ht="16">
-      <c r="A130" s="48"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C130" s="50"/>
+      <c r="C130" s="55"/>
     </row>
     <row r="131" spans="1:3" ht="16">
-      <c r="A131" s="48"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="50"/>
+      <c r="C131" s="55"/>
     </row>
     <row r="132" spans="1:3" ht="16">
-      <c r="A132" s="48"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="50"/>
+      <c r="C132" s="55"/>
     </row>
     <row r="133" spans="1:3" ht="16">
-      <c r="A133" s="48"/>
+      <c r="A133" s="53"/>
       <c r="B133" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="50"/>
+      <c r="C133" s="55"/>
     </row>
     <row r="134" spans="1:3" ht="16">
-      <c r="A134" s="48"/>
+      <c r="A134" s="53"/>
       <c r="B134" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="50"/>
+      <c r="C134" s="55"/>
     </row>
     <row r="135" spans="1:3" ht="16">
-      <c r="A135" s="48"/>
+      <c r="A135" s="53"/>
       <c r="B135" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="50"/>
+      <c r="C135" s="55"/>
     </row>
     <row r="136" spans="1:3" ht="16">
-      <c r="A136" s="48"/>
+      <c r="A136" s="53"/>
       <c r="B136" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="50"/>
+      <c r="C136" s="55"/>
     </row>
     <row r="137" spans="1:3" ht="16">
-      <c r="A137" s="48"/>
+      <c r="A137" s="53"/>
       <c r="B137" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C137" s="50"/>
+      <c r="C137" s="55"/>
     </row>
     <row r="138" spans="1:3" ht="16">
-      <c r="A138" s="48"/>
+      <c r="A138" s="53"/>
       <c r="B138" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="50"/>
+      <c r="C138" s="55"/>
     </row>
     <row r="139" spans="1:3" ht="16">
-      <c r="A139" s="48"/>
+      <c r="A139" s="53"/>
       <c r="B139" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="50"/>
+      <c r="C139" s="55"/>
     </row>
     <row r="140" spans="1:3" ht="16">
-      <c r="A140" s="48"/>
+      <c r="A140" s="53"/>
       <c r="B140" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="50"/>
+      <c r="C140" s="55"/>
     </row>
     <row r="141" spans="1:3" ht="16">
-      <c r="A141" s="48"/>
+      <c r="A141" s="53"/>
       <c r="B141" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="50"/>
+      <c r="C141" s="55"/>
     </row>
     <row r="142" spans="1:3" ht="16">
-      <c r="A142" s="47">
+      <c r="A142" s="52">
         <v>10.199999999999999</v>
       </c>
       <c r="B142" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="50"/>
+      <c r="C142" s="55"/>
     </row>
     <row r="143" spans="1:3" ht="16">
-      <c r="A143" s="48"/>
+      <c r="A143" s="53"/>
       <c r="B143" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="50"/>
+      <c r="C143" s="55"/>
     </row>
     <row r="144" spans="1:3" ht="16">
-      <c r="A144" s="48"/>
+      <c r="A144" s="53"/>
       <c r="B144" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="50"/>
+      <c r="C144" s="55"/>
     </row>
     <row r="145" spans="1:3" ht="16">
-      <c r="A145" s="48"/>
+      <c r="A145" s="53"/>
       <c r="B145" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="50"/>
+      <c r="C145" s="55"/>
     </row>
     <row r="146" spans="1:3" ht="16">
-      <c r="A146" s="48"/>
+      <c r="A146" s="53"/>
       <c r="B146" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="50"/>
+      <c r="C146" s="55"/>
     </row>
     <row r="147" spans="1:3" ht="16">
-      <c r="A147" s="48"/>
+      <c r="A147" s="53"/>
       <c r="B147" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="50"/>
+      <c r="C147" s="55"/>
     </row>
     <row r="148" spans="1:3" ht="16">
-      <c r="A148" s="48"/>
+      <c r="A148" s="53"/>
       <c r="B148" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="50"/>
+      <c r="C148" s="55"/>
     </row>
     <row r="149" spans="1:3" ht="16">
-      <c r="A149" s="48"/>
+      <c r="A149" s="53"/>
       <c r="B149" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="50"/>
+      <c r="C149" s="55"/>
     </row>
     <row r="150" spans="1:3" ht="16">
-      <c r="A150" s="48"/>
+      <c r="A150" s="53"/>
       <c r="B150" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="50"/>
+      <c r="C150" s="55"/>
     </row>
     <row r="151" spans="1:3" ht="16">
-      <c r="A151" s="48"/>
+      <c r="A151" s="53"/>
       <c r="B151" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="50"/>
+      <c r="C151" s="55"/>
     </row>
     <row r="152" spans="1:3" ht="16">
-      <c r="A152" s="48"/>
+      <c r="A152" s="53"/>
       <c r="B152" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="50"/>
+      <c r="C152" s="55"/>
     </row>
     <row r="153" spans="1:3" ht="16">
-      <c r="A153" s="48"/>
+      <c r="A153" s="53"/>
       <c r="B153" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="50"/>
+      <c r="C153" s="55"/>
     </row>
     <row r="154" spans="1:3" ht="16">
-      <c r="A154" s="54"/>
+      <c r="A154" s="59"/>
       <c r="B154" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="55"/>
+      <c r="C154" s="60"/>
     </row>
     <row r="155" spans="1:3" ht="16">
-      <c r="A155" s="47">
+      <c r="A155" s="52">
         <v>10.3</v>
       </c>
       <c r="B155" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C155" s="49">
+      <c r="C155" s="54">
         <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="16">
-      <c r="A156" s="48"/>
+      <c r="A156" s="53"/>
       <c r="B156" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="50"/>
+      <c r="C156" s="55"/>
     </row>
     <row r="157" spans="1:3" ht="16">
-      <c r="A157" s="48"/>
+      <c r="A157" s="53"/>
       <c r="B157" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C157" s="50"/>
+      <c r="C157" s="55"/>
     </row>
     <row r="158" spans="1:3" ht="16">
-      <c r="A158" s="47">
+      <c r="A158" s="52">
         <v>10.4</v>
       </c>
       <c r="B158" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="49">
+      <c r="C158" s="54">
         <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16">
-      <c r="A159" s="48"/>
+      <c r="A159" s="53"/>
       <c r="B159" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C159" s="50"/>
+      <c r="C159" s="55"/>
     </row>
     <row r="160" spans="1:3" ht="16">
-      <c r="A160" s="48"/>
+      <c r="A160" s="53"/>
       <c r="B160" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="50"/>
+      <c r="C160" s="55"/>
     </row>
     <row r="161" spans="1:3" ht="16">
-      <c r="A161" s="47">
+      <c r="A161" s="52">
         <v>10.5</v>
       </c>
       <c r="B161" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="49">
+      <c r="C161" s="54">
         <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="16">
-      <c r="A162" s="48"/>
+      <c r="A162" s="53"/>
       <c r="B162" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C162" s="50"/>
+      <c r="C162" s="55"/>
     </row>
     <row r="163" spans="1:3" ht="16">
-      <c r="A163" s="48"/>
+      <c r="A163" s="53"/>
       <c r="B163" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="50"/>
+      <c r="C163" s="55"/>
     </row>
     <row r="164" spans="1:3" ht="16">
       <c r="A164" s="9">
@@ -7587,7 +7587,7 @@
       <c r="B164" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="51">
+      <c r="C164" s="56">
         <v>0.5</v>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       <c r="B165" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="51"/>
+      <c r="C165" s="56"/>
     </row>
     <row r="166" spans="1:3" ht="16">
       <c r="A166" s="17">
@@ -7607,23 +7607,23 @@
       <c r="B166" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C166" s="51"/>
+      <c r="C166" s="56"/>
     </row>
     <row r="167" spans="1:3" ht="16">
-      <c r="A167" s="52">
+      <c r="A167" s="57">
         <v>6.3</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="51"/>
+      <c r="C167" s="56"/>
     </row>
     <row r="168" spans="1:3" ht="16">
-      <c r="A168" s="52"/>
+      <c r="A168" s="57"/>
       <c r="B168" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C168" s="51"/>
+      <c r="C168" s="56"/>
     </row>
     <row r="169" spans="1:3" ht="16">
       <c r="A169" s="9">
@@ -7632,92 +7632,92 @@
       <c r="B169" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="53">
+      <c r="C169" s="58">
         <v>0.75</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="16">
-      <c r="A170" s="52">
+      <c r="A170" s="57">
         <v>7.1</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C170" s="53"/>
+      <c r="C170" s="58"/>
     </row>
     <row r="171" spans="1:3" ht="16">
-      <c r="A171" s="52"/>
+      <c r="A171" s="57"/>
       <c r="B171" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C171" s="53"/>
+      <c r="C171" s="58"/>
     </row>
     <row r="172" spans="1:3" ht="16">
-      <c r="A172" s="52"/>
+      <c r="A172" s="57"/>
       <c r="B172" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="53"/>
+      <c r="C172" s="58"/>
     </row>
     <row r="173" spans="1:3" ht="16">
-      <c r="A173" s="52">
+      <c r="A173" s="57">
         <v>7.2</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="53"/>
+      <c r="C173" s="58"/>
     </row>
     <row r="174" spans="1:3" ht="16">
-      <c r="A174" s="52"/>
+      <c r="A174" s="57"/>
       <c r="B174" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C174" s="53"/>
+      <c r="C174" s="58"/>
     </row>
     <row r="175" spans="1:3" ht="16">
-      <c r="A175" s="52"/>
+      <c r="A175" s="57"/>
       <c r="B175" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C175" s="53"/>
+      <c r="C175" s="58"/>
     </row>
     <row r="176" spans="1:3" ht="16">
-      <c r="A176" s="52">
+      <c r="A176" s="57">
         <v>7.3</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C176" s="53"/>
+      <c r="C176" s="58"/>
     </row>
     <row r="177" spans="1:3" ht="16">
-      <c r="A177" s="52"/>
+      <c r="A177" s="57"/>
       <c r="B177" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="53"/>
+      <c r="C177" s="58"/>
     </row>
     <row r="178" spans="1:3" ht="16">
-      <c r="A178" s="52"/>
+      <c r="A178" s="57"/>
       <c r="B178" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C178" s="53"/>
+      <c r="C178" s="58"/>
     </row>
     <row r="179" spans="1:3" ht="16">
-      <c r="A179" s="52"/>
+      <c r="A179" s="57"/>
       <c r="B179" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C179" s="53"/>
+      <c r="C179" s="58"/>
     </row>
     <row r="180" spans="1:3" ht="16">
-      <c r="A180" s="52"/>
+      <c r="A180" s="57"/>
       <c r="B180" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="53"/>
+      <c r="C180" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -7785,8 +7785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD628D5-ED78-411C-81DD-A462538232A5}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD89"/>
+    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -8942,29 +8942,29 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="73" customFormat="1" ht="43.5">
-      <c r="A45" s="70">
+    <row r="45" spans="1:8" s="50" customFormat="1" ht="43.5">
+      <c r="A45" s="47">
         <v>44</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="48" t="s">
         <v>791</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="F45" s="71" t="s">
+      <c r="F45" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="G45" s="71" t="s">
+      <c r="G45" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="H45" s="72" t="s">
+      <c r="H45" s="49" t="s">
         <v>283</v>
       </c>
     </row>
@@ -9202,29 +9202,29 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="73" customFormat="1" ht="43.5">
-      <c r="A55" s="70">
+    <row r="55" spans="1:8" s="50" customFormat="1" ht="43.5">
+      <c r="A55" s="47">
         <v>54</v>
       </c>
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="48" t="s">
         <v>485</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="48" t="s">
         <v>810</v>
       </c>
-      <c r="D55" s="74" t="s">
+      <c r="D55" s="51" t="s">
         <v>811</v>
       </c>
-      <c r="E55" s="74" t="s">
+      <c r="E55" s="51" t="s">
         <v>812</v>
       </c>
-      <c r="F55" s="74" t="s">
+      <c r="F55" s="51" t="s">
         <v>813</v>
       </c>
-      <c r="G55" s="74" t="s">
+      <c r="G55" s="51" t="s">
         <v>814</v>
       </c>
-      <c r="H55" s="72" t="s">
+      <c r="H55" s="49" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9280,29 +9280,29 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="73" customFormat="1" ht="56">
-      <c r="A58" s="70">
+    <row r="58" spans="1:8" s="50" customFormat="1" ht="56">
+      <c r="A58" s="47">
         <v>57</v>
       </c>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="48" t="s">
         <v>488</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="48" t="s">
         <v>817</v>
       </c>
-      <c r="D58" s="74" t="s">
+      <c r="D58" s="51" t="s">
         <v>387</v>
       </c>
-      <c r="E58" s="74" t="s">
+      <c r="E58" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="F58" s="74" t="s">
+      <c r="F58" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="G58" s="74" t="s">
+      <c r="G58" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="H58" s="72" t="s">
+      <c r="H58" s="49" t="s">
         <v>242</v>
       </c>
     </row>
@@ -10086,29 +10086,29 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="73" customFormat="1" ht="43.5">
-      <c r="A89" s="70">
+    <row r="89" spans="1:8" s="50" customFormat="1" ht="43.5">
+      <c r="A89" s="47">
         <v>88</v>
       </c>
-      <c r="B89" s="71" t="s">
+      <c r="B89" s="48" t="s">
         <v>557</v>
       </c>
-      <c r="C89" s="71" t="s">
+      <c r="C89" s="48" t="s">
         <v>727</v>
       </c>
-      <c r="D89" s="71" t="s">
+      <c r="D89" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="E89" s="71" t="s">
+      <c r="E89" s="48" t="s">
         <v>559</v>
       </c>
-      <c r="F89" s="71" t="s">
+      <c r="F89" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="G89" s="71" t="s">
+      <c r="G89" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="H89" s="72" t="s">
+      <c r="H89" s="49" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10372,107 +10372,107 @@
         <v>181</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="29">
-      <c r="A100" s="3">
+    <row r="100" spans="1:8" s="50" customFormat="1" ht="29">
+      <c r="A100" s="47">
         <v>99</v>
       </c>
-      <c r="B100" s="37" t="s">
+      <c r="B100" s="48" t="s">
         <v>607</v>
       </c>
-      <c r="C100" s="37" t="s">
+      <c r="C100" s="48" t="s">
         <v>734</v>
       </c>
-      <c r="D100" s="37" t="s">
+      <c r="D100" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="E100" s="37" t="s">
+      <c r="E100" s="48" t="s">
         <v>607</v>
       </c>
-      <c r="F100" s="37" t="s">
+      <c r="F100" s="48" t="s">
         <v>552</v>
       </c>
-      <c r="G100" s="37" t="s">
+      <c r="G100" s="48" t="s">
         <v>608</v>
       </c>
-      <c r="H100" s="33" t="s">
+      <c r="H100" s="49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="43.5">
-      <c r="A101" s="3">
+    <row r="101" spans="1:8" s="50" customFormat="1" ht="43.5">
+      <c r="A101" s="47">
         <v>100</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="B101" s="48" t="s">
         <v>609</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="C101" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="D101" s="37" t="s">
+      <c r="D101" s="48" t="s">
         <v>610</v>
       </c>
-      <c r="E101" s="37" t="s">
+      <c r="E101" s="48" t="s">
         <v>611</v>
       </c>
-      <c r="F101" s="37" t="s">
+      <c r="F101" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="G101" s="37" t="s">
+      <c r="G101" s="48" t="s">
         <v>613</v>
       </c>
-      <c r="H101" s="33" t="s">
+      <c r="H101" s="49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="43.5">
-      <c r="A102" s="3">
+    <row r="102" spans="1:8" s="50" customFormat="1" ht="43.5">
+      <c r="A102" s="47">
         <v>101</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B102" s="48" t="s">
         <v>614</v>
       </c>
-      <c r="C102" s="37" t="s">
+      <c r="C102" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="D102" s="37" t="s">
+      <c r="D102" s="48" t="s">
         <v>611</v>
       </c>
-      <c r="E102" s="37" t="s">
+      <c r="E102" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="F102" s="37" t="s">
+      <c r="F102" s="48" t="s">
         <v>610</v>
       </c>
-      <c r="G102" s="37" t="s">
+      <c r="G102" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="H102" s="33" t="s">
+      <c r="H102" s="49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="43.5">
-      <c r="A103" s="3">
+    <row r="103" spans="1:8" s="50" customFormat="1" ht="43.5">
+      <c r="A103" s="47">
         <v>102</v>
       </c>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="C103" s="37" t="s">
+      <c r="C103" s="48" t="s">
         <v>737</v>
       </c>
-      <c r="D103" s="37" t="s">
+      <c r="D103" s="48" t="s">
         <v>617</v>
       </c>
-      <c r="E103" s="37" t="s">
+      <c r="E103" s="48" t="s">
         <v>618</v>
       </c>
-      <c r="F103" s="37" t="s">
+      <c r="F103" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="G103" s="37" t="s">
+      <c r="G103" s="48" t="s">
         <v>619</v>
       </c>
-      <c r="H103" s="33" t="s">
+      <c r="H103" s="49" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10632,29 +10632,29 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="73" customFormat="1" ht="43.5">
-      <c r="A110" s="70">
+    <row r="110" spans="1:8" s="50" customFormat="1" ht="43.5">
+      <c r="A110" s="47">
         <v>109</v>
       </c>
-      <c r="B110" s="71" t="s">
+      <c r="B110" s="48" t="s">
         <v>636</v>
       </c>
-      <c r="C110" s="71" t="s">
+      <c r="C110" s="48" t="s">
         <v>744</v>
       </c>
-      <c r="D110" s="71" t="s">
+      <c r="D110" s="48" t="s">
         <v>637</v>
       </c>
-      <c r="E110" s="71" t="s">
+      <c r="E110" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="F110" s="71" t="s">
+      <c r="F110" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="G110" s="71" t="s">
+      <c r="G110" s="48" t="s">
         <v>623</v>
       </c>
-      <c r="H110" s="72" t="s">
+      <c r="H110" s="49" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10684,29 +10684,29 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="73" customFormat="1" ht="43.5">
-      <c r="A112" s="70">
+    <row r="112" spans="1:8" s="50" customFormat="1" ht="43.5">
+      <c r="A112" s="47">
         <v>111</v>
       </c>
-      <c r="B112" s="71" t="s">
+      <c r="B112" s="48" t="s">
         <v>638</v>
       </c>
-      <c r="C112" s="71" t="s">
+      <c r="C112" s="48" t="s">
         <v>746</v>
       </c>
-      <c r="D112" s="71" t="s">
+      <c r="D112" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="E112" s="71" t="s">
+      <c r="E112" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="F112" s="71" t="s">
+      <c r="F112" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="G112" s="71" t="s">
+      <c r="G112" s="48" t="s">
         <v>639</v>
       </c>
-      <c r="H112" s="72" t="s">
+      <c r="H112" s="49" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10866,29 +10866,29 @@
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="73" customFormat="1" ht="29">
-      <c r="A119" s="70">
+    <row r="119" spans="1:8" s="50" customFormat="1" ht="29">
+      <c r="A119" s="47">
         <v>118</v>
       </c>
-      <c r="B119" s="71" t="s">
+      <c r="B119" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="71" t="s">
+      <c r="C119" s="48" t="s">
         <v>753</v>
       </c>
-      <c r="D119" s="71" t="s">
+      <c r="D119" s="48" t="s">
         <v>663</v>
       </c>
-      <c r="E119" s="71" t="s">
+      <c r="E119" s="48" t="s">
         <v>664</v>
       </c>
-      <c r="F119" s="71" t="s">
+      <c r="F119" s="48" t="s">
         <v>665</v>
       </c>
-      <c r="G119" s="71" t="s">
+      <c r="G119" s="48" t="s">
         <v>666</v>
       </c>
-      <c r="H119" s="72" t="s">
+      <c r="H119" s="49" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10944,182 +10944,182 @@
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="73" customFormat="1" ht="43.5">
-      <c r="A122" s="70">
+    <row r="122" spans="1:8" s="50" customFormat="1" ht="43.5">
+      <c r="A122" s="47">
         <v>121</v>
       </c>
-      <c r="B122" s="71" t="s">
+      <c r="B122" s="48" t="s">
         <v>671</v>
       </c>
-      <c r="C122" s="71" t="s">
+      <c r="C122" s="48" t="s">
         <v>672</v>
       </c>
-      <c r="D122" s="71" t="s">
+      <c r="D122" s="48" t="s">
         <v>623</v>
       </c>
-      <c r="E122" s="71" t="s">
+      <c r="E122" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="F122" s="71" t="s">
+      <c r="F122" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="G122" s="71" t="s">
+      <c r="G122" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="H122" s="72" t="s">
+      <c r="H122" s="49" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="73" customFormat="1" ht="29">
-      <c r="A123" s="70">
+    <row r="123" spans="1:8" s="50" customFormat="1" ht="29">
+      <c r="A123" s="47">
         <v>122</v>
       </c>
-      <c r="B123" s="71" t="s">
+      <c r="B123" s="48" t="s">
         <v>673</v>
       </c>
-      <c r="C123" s="71" t="s">
+      <c r="C123" s="48" t="s">
         <v>674</v>
       </c>
-      <c r="D123" s="71" t="s">
+      <c r="D123" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="E123" s="71" t="s">
+      <c r="E123" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="F123" s="71" t="s">
+      <c r="F123" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="G123" s="71" t="s">
+      <c r="G123" s="48" t="s">
         <v>637</v>
       </c>
-      <c r="H123" s="72" t="s">
+      <c r="H123" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="73" customFormat="1" ht="29">
-      <c r="A124" s="70">
+    <row r="124" spans="1:8" s="50" customFormat="1" ht="29">
+      <c r="A124" s="47">
         <v>123</v>
       </c>
-      <c r="B124" s="71" t="s">
+      <c r="B124" s="48" t="s">
         <v>675</v>
       </c>
-      <c r="C124" s="71" t="s">
+      <c r="C124" s="48" t="s">
         <v>676</v>
       </c>
-      <c r="D124" s="71" t="s">
+      <c r="D124" s="48" t="s">
         <v>624</v>
       </c>
-      <c r="E124" s="71" t="s">
+      <c r="E124" s="48" t="s">
         <v>637</v>
       </c>
-      <c r="F124" s="71" t="s">
+      <c r="F124" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="G124" s="71" t="s">
+      <c r="G124" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="H124" s="72" t="s">
+      <c r="H124" s="49" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="73" customFormat="1" ht="43.5">
-      <c r="A125" s="70">
+    <row r="125" spans="1:8" s="50" customFormat="1" ht="43.5">
+      <c r="A125" s="47">
         <v>124</v>
       </c>
-      <c r="B125" s="71" t="s">
+      <c r="B125" s="48" t="s">
         <v>677</v>
       </c>
-      <c r="C125" s="71" t="s">
+      <c r="C125" s="48" t="s">
         <v>678</v>
       </c>
-      <c r="D125" s="71" t="s">
+      <c r="D125" s="48" t="s">
         <v>623</v>
       </c>
-      <c r="E125" s="71" t="s">
+      <c r="E125" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="F125" s="71" t="s">
+      <c r="F125" s="48" t="s">
         <v>637</v>
       </c>
-      <c r="G125" s="71" t="s">
+      <c r="G125" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="H125" s="72" t="s">
+      <c r="H125" s="49" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="29">
-      <c r="A126" s="70">
+      <c r="A126" s="47">
         <v>125</v>
       </c>
-      <c r="B126" s="71" t="s">
+      <c r="B126" s="48" t="s">
         <v>679</v>
       </c>
-      <c r="C126" s="71" t="s">
+      <c r="C126" s="48" t="s">
         <v>754</v>
       </c>
-      <c r="D126" s="71" t="s">
+      <c r="D126" s="48" t="s">
         <v>680</v>
       </c>
-      <c r="E126" s="71" t="s">
+      <c r="E126" s="48" t="s">
         <v>681</v>
       </c>
-      <c r="F126" s="71" t="s">
+      <c r="F126" s="48" t="s">
         <v>682</v>
       </c>
-      <c r="G126" s="71" t="s">
+      <c r="G126" s="48" t="s">
         <v>683</v>
       </c>
-      <c r="H126" s="72" t="s">
+      <c r="H126" s="49" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="29">
-      <c r="A127" s="70">
+      <c r="A127" s="47">
         <v>126</v>
       </c>
-      <c r="B127" s="71" t="s">
+      <c r="B127" s="48" t="s">
         <v>684</v>
       </c>
-      <c r="C127" s="71" t="s">
+      <c r="C127" s="48" t="s">
         <v>685</v>
       </c>
-      <c r="D127" s="71" t="s">
+      <c r="D127" s="48" t="s">
         <v>686</v>
       </c>
-      <c r="E127" s="71" t="s">
+      <c r="E127" s="48" t="s">
         <v>687</v>
       </c>
-      <c r="F127" s="71" t="s">
+      <c r="F127" s="48" t="s">
         <v>688</v>
       </c>
-      <c r="G127" s="71" t="s">
+      <c r="G127" s="48" t="s">
         <v>689</v>
       </c>
-      <c r="H127" s="72" t="s">
+      <c r="H127" s="49" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="29">
-      <c r="A128" s="70">
+      <c r="A128" s="47">
         <v>127</v>
       </c>
-      <c r="B128" s="71" t="s">
+      <c r="B128" s="48" t="s">
         <v>690</v>
       </c>
-      <c r="C128" s="71" t="s">
+      <c r="C128" s="48" t="s">
         <v>691</v>
       </c>
-      <c r="D128" s="71" t="s">
+      <c r="D128" s="48" t="s">
         <v>692</v>
       </c>
-      <c r="E128" s="71" t="s">
+      <c r="E128" s="48" t="s">
         <v>693</v>
       </c>
-      <c r="F128" s="71" t="s">
+      <c r="F128" s="48" t="s">
         <v>694</v>
       </c>
-      <c r="G128" s="71" t="s">
+      <c r="G128" s="48" t="s">
         <v>695</v>
       </c>
       <c r="H128" s="33" t="s">
@@ -11127,25 +11127,25 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="43.5">
-      <c r="A129" s="70">
+      <c r="A129" s="47">
         <v>128</v>
       </c>
-      <c r="B129" s="71" t="s">
+      <c r="B129" s="48" t="s">
         <v>696</v>
       </c>
-      <c r="C129" s="71" t="s">
+      <c r="C129" s="48" t="s">
         <v>697</v>
       </c>
-      <c r="D129" s="71" t="s">
+      <c r="D129" s="48" t="s">
         <v>698</v>
       </c>
-      <c r="E129" s="71" t="s">
+      <c r="E129" s="48" t="s">
         <v>690</v>
       </c>
-      <c r="F129" s="71" t="s">
+      <c r="F129" s="48" t="s">
         <v>699</v>
       </c>
-      <c r="G129" s="71" t="s">
+      <c r="G129" s="48" t="s">
         <v>700</v>
       </c>
       <c r="H129" s="33" t="s">
@@ -11153,25 +11153,25 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="43.5">
-      <c r="A130" s="70">
+      <c r="A130" s="47">
         <v>129</v>
       </c>
-      <c r="B130" s="71" t="s">
+      <c r="B130" s="48" t="s">
         <v>698</v>
       </c>
-      <c r="C130" s="71" t="s">
+      <c r="C130" s="48" t="s">
         <v>701</v>
       </c>
-      <c r="D130" s="71" t="s">
+      <c r="D130" s="48" t="s">
         <v>698</v>
       </c>
-      <c r="E130" s="71" t="s">
+      <c r="E130" s="48" t="s">
         <v>702</v>
       </c>
-      <c r="F130" s="71" t="s">
+      <c r="F130" s="48" t="s">
         <v>699</v>
       </c>
-      <c r="G130" s="71" t="s">
+      <c r="G130" s="48" t="s">
         <v>399</v>
       </c>
       <c r="H130" s="33" t="s">
@@ -11179,25 +11179,25 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="43.5">
-      <c r="A131" s="70">
+      <c r="A131" s="47">
         <v>130</v>
       </c>
-      <c r="B131" s="71" t="s">
+      <c r="B131" s="48" t="s">
         <v>703</v>
       </c>
-      <c r="C131" s="71" t="s">
+      <c r="C131" s="48" t="s">
         <v>845</v>
       </c>
-      <c r="D131" s="71" t="s">
+      <c r="D131" s="48" t="s">
         <v>704</v>
       </c>
-      <c r="E131" s="71" t="s">
+      <c r="E131" s="48" t="s">
         <v>705</v>
       </c>
-      <c r="F131" s="71" t="s">
+      <c r="F131" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="G131" s="71" t="s">
+      <c r="G131" s="48" t="s">
         <v>706</v>
       </c>
       <c r="H131" s="33" t="s">
@@ -11477,7 +11477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECF5D2E-957E-473A-B564-2B2CEA723C1E}">
   <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/CP Java Milestone 2 QB's.xlsx
+++ b/CP Java Milestone 2 QB's.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPS\Vindhya\wipro\25SUB4530\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DBFCB2-EE27-46B0-8FD4-352DF5C2AC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12518981-50C8-4F90-B62B-9E6F2844153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="788" activeTab="1" xr2:uid="{D87C16C7-7877-4DFD-96AE-9EF7A8CD9A36}"/>
   </bookViews>
@@ -5785,54 +5785,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5852,6 +5804,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6320,10 +6320,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3" ht="16">
       <c r="A2" s="1" t="s">
@@ -6356,99 +6356,99 @@
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="57">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16">
-      <c r="A6" s="69">
+      <c r="A6" s="53">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="58"/>
     </row>
     <row r="7" spans="1:3" ht="16">
-      <c r="A7" s="70"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="58"/>
     </row>
     <row r="8" spans="1:3" ht="16">
-      <c r="A8" s="70"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="58"/>
     </row>
     <row r="9" spans="1:3" ht="16">
-      <c r="A9" s="70"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:3" ht="16">
-      <c r="A10" s="70"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="58"/>
     </row>
     <row r="11" spans="1:3" ht="16">
-      <c r="A11" s="69">
+      <c r="A11" s="53">
         <v>1.2</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="58"/>
     </row>
     <row r="12" spans="1:3" ht="16">
-      <c r="A12" s="70"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="58"/>
     </row>
     <row r="13" spans="1:3" ht="16">
-      <c r="A13" s="70"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="58"/>
     </row>
     <row r="14" spans="1:3" ht="16">
-      <c r="A14" s="69">
+      <c r="A14" s="53">
         <v>1.4</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="58"/>
     </row>
     <row r="15" spans="1:3" ht="16">
-      <c r="A15" s="70"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="58"/>
     </row>
     <row r="16" spans="1:3" ht="16">
-      <c r="A16" s="70"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="58"/>
     </row>
     <row r="17" spans="1:3" ht="16">
-      <c r="A17" s="71"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="58"/>
     </row>
     <row r="18" spans="1:3" ht="16">
       <c r="A18" s="9">
@@ -6457,99 +6457,99 @@
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="52">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16">
-      <c r="A19" s="69">
+      <c r="A19" s="53">
         <v>2.1</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="52"/>
     </row>
     <row r="20" spans="1:3" ht="16">
-      <c r="A20" s="70"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="52"/>
     </row>
     <row r="21" spans="1:3" ht="16">
-      <c r="A21" s="70"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="52"/>
     </row>
     <row r="22" spans="1:3" ht="16">
-      <c r="A22" s="71"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="52"/>
     </row>
     <row r="23" spans="1:3" ht="16">
-      <c r="A23" s="69">
+      <c r="A23" s="53">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:3" ht="16">
-      <c r="A24" s="70"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="68"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" spans="1:3" ht="16">
-      <c r="A25" s="70"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="1:3" ht="16">
-      <c r="A26" s="71"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="52"/>
     </row>
     <row r="27" spans="1:3" ht="16">
-      <c r="A27" s="69">
+      <c r="A27" s="53">
         <v>2.6</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="52"/>
     </row>
     <row r="28" spans="1:3" ht="16">
-      <c r="A28" s="70"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="52"/>
     </row>
     <row r="29" spans="1:3" ht="16">
-      <c r="A29" s="70"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="52"/>
     </row>
     <row r="30" spans="1:3" ht="16">
-      <c r="A30" s="71"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="52"/>
     </row>
     <row r="31" spans="1:3" ht="16">
       <c r="A31" s="9">
@@ -6558,62 +6558,62 @@
       <c r="B31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="59">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16">
-      <c r="A32" s="57">
+      <c r="A32" s="62">
         <v>3.1</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="60"/>
     </row>
     <row r="33" spans="1:3" ht="16">
-      <c r="A33" s="57"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="62"/>
+      <c r="C33" s="60"/>
     </row>
     <row r="34" spans="1:3" ht="16">
-      <c r="A34" s="57"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="62"/>
+      <c r="C34" s="60"/>
     </row>
     <row r="35" spans="1:3" ht="16">
-      <c r="A35" s="57">
+      <c r="A35" s="62">
         <v>3.2</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="62"/>
+      <c r="C35" s="60"/>
     </row>
     <row r="36" spans="1:3" ht="16">
-      <c r="A36" s="57"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="62"/>
+      <c r="C36" s="60"/>
     </row>
     <row r="37" spans="1:3" ht="16">
-      <c r="A37" s="57"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="62"/>
+      <c r="C37" s="60"/>
     </row>
     <row r="38" spans="1:3" ht="16">
-      <c r="A38" s="57"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="62"/>
+      <c r="C38" s="60"/>
     </row>
     <row r="39" spans="1:3" ht="16">
       <c r="A39" s="18">
@@ -6622,7 +6622,7 @@
       <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="61"/>
     </row>
     <row r="40" spans="1:3" ht="16">
       <c r="A40" s="20">
@@ -6631,60 +6631,60 @@
       <c r="B40" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="61">
+      <c r="C40" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16">
-      <c r="A41" s="52">
+      <c r="A41" s="63">
         <v>4.2</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="62"/>
+      <c r="C41" s="60"/>
     </row>
     <row r="42" spans="1:3" ht="16">
-      <c r="A42" s="53"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="62"/>
+      <c r="C42" s="60"/>
     </row>
     <row r="43" spans="1:3" ht="16">
-      <c r="A43" s="53"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="62"/>
+      <c r="C43" s="60"/>
     </row>
     <row r="44" spans="1:3" ht="16">
-      <c r="A44" s="53"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="62"/>
+      <c r="C44" s="60"/>
     </row>
     <row r="45" spans="1:3" ht="16">
-      <c r="A45" s="53"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="62"/>
+      <c r="C45" s="60"/>
     </row>
     <row r="46" spans="1:3" ht="16">
-      <c r="A46" s="53"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="60"/>
     </row>
     <row r="47" spans="1:3" ht="16">
       <c r="A47" s="65"/>
       <c r="B47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="62"/>
+      <c r="C47" s="60"/>
     </row>
     <row r="48" spans="1:3" ht="16">
       <c r="A48" s="20">
@@ -6693,7 +6693,7 @@
       <c r="B48" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="62"/>
+      <c r="C48" s="60"/>
     </row>
     <row r="49" spans="1:3" ht="16">
       <c r="A49" s="20">
@@ -6702,7 +6702,7 @@
       <c r="B49" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="62"/>
+      <c r="C49" s="60"/>
     </row>
     <row r="50" spans="1:3" ht="16">
       <c r="A50" s="9">
@@ -6711,7 +6711,7 @@
       <c r="B50" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="62"/>
+      <c r="C50" s="60"/>
     </row>
     <row r="51" spans="1:3" ht="16">
       <c r="A51" s="66">
@@ -6720,14 +6720,14 @@
       <c r="B51" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="62"/>
+      <c r="C51" s="60"/>
     </row>
     <row r="52" spans="1:3" ht="16">
       <c r="A52" s="67"/>
       <c r="B52" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="63"/>
+      <c r="C52" s="61"/>
     </row>
     <row r="53" spans="1:3" ht="16">
       <c r="A53" s="9">
@@ -6736,83 +6736,83 @@
       <c r="B53" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="61">
+      <c r="C53" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16">
-      <c r="A54" s="57">
+      <c r="A54" s="62">
         <v>6.1</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="62"/>
+      <c r="C54" s="60"/>
     </row>
     <row r="55" spans="1:3" ht="16">
-      <c r="A55" s="57"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="62"/>
+      <c r="C55" s="60"/>
     </row>
     <row r="56" spans="1:3" ht="16">
-      <c r="A56" s="57"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="62"/>
+      <c r="C56" s="60"/>
     </row>
     <row r="57" spans="1:3" ht="16">
-      <c r="A57" s="57"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="62"/>
+      <c r="C57" s="60"/>
     </row>
     <row r="58" spans="1:3" ht="16">
-      <c r="A58" s="57"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="62"/>
+      <c r="C58" s="60"/>
     </row>
     <row r="59" spans="1:3" ht="16">
-      <c r="A59" s="57"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="62"/>
+      <c r="C59" s="60"/>
     </row>
     <row r="60" spans="1:3" ht="16">
-      <c r="A60" s="57">
+      <c r="A60" s="62">
         <v>6.2</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="62"/>
+      <c r="C60" s="60"/>
     </row>
     <row r="61" spans="1:3" ht="16">
-      <c r="A61" s="57"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="62"/>
+      <c r="C61" s="60"/>
     </row>
     <row r="62" spans="1:3" ht="16">
-      <c r="A62" s="57"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="62"/>
+      <c r="C62" s="60"/>
     </row>
     <row r="63" spans="1:3" ht="16">
-      <c r="A63" s="57"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="62"/>
+      <c r="C63" s="60"/>
     </row>
     <row r="64" spans="1:3" ht="16">
       <c r="A64" s="9">
@@ -6821,30 +6821,30 @@
       <c r="B64" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="62"/>
+      <c r="C64" s="60"/>
     </row>
     <row r="65" spans="1:3" ht="16">
-      <c r="A65" s="57">
+      <c r="A65" s="62">
         <v>7.1</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="62"/>
+      <c r="C65" s="60"/>
     </row>
     <row r="66" spans="1:3" ht="16">
-      <c r="A66" s="57"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="62"/>
+      <c r="C66" s="60"/>
     </row>
     <row r="67" spans="1:3" ht="16">
-      <c r="A67" s="57"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="63"/>
+      <c r="C67" s="61"/>
     </row>
     <row r="68" spans="1:3" ht="16">
       <c r="A68" s="9">
@@ -6853,78 +6853,78 @@
       <c r="B68" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="56">
+      <c r="C68" s="72">
         <v>1.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16">
-      <c r="A69" s="57">
+      <c r="A69" s="62">
         <v>8.1</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="56"/>
+      <c r="C69" s="72"/>
     </row>
     <row r="70" spans="1:3" ht="16">
-      <c r="A70" s="57"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="56"/>
+      <c r="C70" s="72"/>
     </row>
     <row r="71" spans="1:3" ht="16">
-      <c r="A71" s="57"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="56"/>
+      <c r="C71" s="72"/>
     </row>
     <row r="72" spans="1:3" ht="16">
-      <c r="A72" s="57">
+      <c r="A72" s="62">
         <v>8.1999999999999993</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="56"/>
+      <c r="C72" s="72"/>
     </row>
     <row r="73" spans="1:3" ht="16">
-      <c r="A73" s="57"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="56"/>
+      <c r="C73" s="72"/>
     </row>
     <row r="74" spans="1:3" ht="16">
-      <c r="A74" s="57"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="56"/>
+      <c r="C74" s="72"/>
     </row>
     <row r="75" spans="1:3" ht="16">
-      <c r="A75" s="57">
+      <c r="A75" s="62">
         <v>8.3000000000000007</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="56"/>
+      <c r="C75" s="72"/>
     </row>
     <row r="76" spans="1:3" ht="16">
-      <c r="A76" s="57"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="56"/>
+      <c r="C76" s="72"/>
     </row>
     <row r="77" spans="1:3" ht="16">
-      <c r="A77" s="57"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="56"/>
+      <c r="C77" s="72"/>
     </row>
     <row r="78" spans="1:3" ht="16">
       <c r="A78" s="17">
@@ -6933,7 +6933,7 @@
       <c r="B78" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="56"/>
+      <c r="C78" s="72"/>
     </row>
     <row r="79" spans="1:3" ht="16">
       <c r="A79" s="23">
@@ -6942,322 +6942,322 @@
       <c r="B79" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16">
-      <c r="A80" s="52">
+      <c r="A80" s="63">
         <v>9.1</v>
       </c>
       <c r="B80" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="55"/>
+      <c r="C80" s="70"/>
     </row>
     <row r="81" spans="1:3" ht="16">
-      <c r="A81" s="53"/>
+      <c r="A81" s="64"/>
       <c r="B81" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="55"/>
+      <c r="C81" s="70"/>
     </row>
     <row r="82" spans="1:3" ht="16">
-      <c r="A82" s="53"/>
+      <c r="A82" s="64"/>
       <c r="B82" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="55"/>
+      <c r="C82" s="70"/>
     </row>
     <row r="83" spans="1:3" ht="16">
-      <c r="A83" s="53"/>
+      <c r="A83" s="64"/>
       <c r="B83" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="55"/>
+      <c r="C83" s="70"/>
     </row>
     <row r="84" spans="1:3" ht="16">
-      <c r="A84" s="53"/>
+      <c r="A84" s="64"/>
       <c r="B84" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="55"/>
+      <c r="C84" s="70"/>
     </row>
     <row r="85" spans="1:3" ht="16">
-      <c r="A85" s="53"/>
+      <c r="A85" s="64"/>
       <c r="B85" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="55"/>
+      <c r="C85" s="70"/>
     </row>
     <row r="86" spans="1:3" ht="16">
-      <c r="A86" s="59"/>
+      <c r="A86" s="68"/>
       <c r="B86" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="55"/>
+      <c r="C86" s="70"/>
     </row>
     <row r="87" spans="1:3" ht="16">
-      <c r="A87" s="52">
+      <c r="A87" s="63">
         <v>9.1999999999999993</v>
       </c>
       <c r="B87" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="55"/>
+      <c r="C87" s="70"/>
     </row>
     <row r="88" spans="1:3" ht="16">
-      <c r="A88" s="53"/>
+      <c r="A88" s="64"/>
       <c r="B88" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="55"/>
+      <c r="C88" s="70"/>
     </row>
     <row r="89" spans="1:3" ht="16">
-      <c r="A89" s="53"/>
+      <c r="A89" s="64"/>
       <c r="B89" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="55"/>
+      <c r="C89" s="70"/>
     </row>
     <row r="90" spans="1:3" ht="16">
-      <c r="A90" s="59"/>
+      <c r="A90" s="68"/>
       <c r="B90" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="55"/>
+      <c r="C90" s="70"/>
     </row>
     <row r="91" spans="1:3" ht="16">
-      <c r="A91" s="52">
+      <c r="A91" s="63">
         <v>9.3000000000000007</v>
       </c>
       <c r="B91" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="55"/>
+      <c r="C91" s="70"/>
     </row>
     <row r="92" spans="1:3" ht="16">
-      <c r="A92" s="53"/>
+      <c r="A92" s="64"/>
       <c r="B92" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="55"/>
+      <c r="C92" s="70"/>
     </row>
     <row r="93" spans="1:3" ht="16">
-      <c r="A93" s="59"/>
+      <c r="A93" s="68"/>
       <c r="B93" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="55"/>
+      <c r="C93" s="70"/>
     </row>
     <row r="94" spans="1:3" ht="16">
-      <c r="A94" s="52">
+      <c r="A94" s="63">
         <v>9.4</v>
       </c>
       <c r="B94" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="55"/>
+      <c r="C94" s="70"/>
     </row>
     <row r="95" spans="1:3" ht="16">
-      <c r="A95" s="53"/>
+      <c r="A95" s="64"/>
       <c r="B95" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="55"/>
+      <c r="C95" s="70"/>
     </row>
     <row r="96" spans="1:3" ht="16">
-      <c r="A96" s="59"/>
+      <c r="A96" s="68"/>
       <c r="B96" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="60"/>
+      <c r="C96" s="71"/>
     </row>
     <row r="97" spans="1:3" ht="16">
-      <c r="A97" s="52">
+      <c r="A97" s="63">
         <v>9.5</v>
       </c>
       <c r="B97" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="54">
+      <c r="C97" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16">
-      <c r="A98" s="53"/>
+      <c r="A98" s="64"/>
       <c r="B98" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="55"/>
+      <c r="C98" s="70"/>
     </row>
     <row r="99" spans="1:3" ht="16">
-      <c r="A99" s="53"/>
+      <c r="A99" s="64"/>
       <c r="B99" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="55"/>
+      <c r="C99" s="70"/>
     </row>
     <row r="100" spans="1:3" ht="16">
-      <c r="A100" s="59"/>
+      <c r="A100" s="68"/>
       <c r="B100" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="55"/>
+      <c r="C100" s="70"/>
     </row>
     <row r="101" spans="1:3" ht="16">
-      <c r="A101" s="52">
+      <c r="A101" s="63">
         <v>9.6</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="55"/>
+      <c r="C101" s="70"/>
     </row>
     <row r="102" spans="1:3" ht="16">
-      <c r="A102" s="53"/>
+      <c r="A102" s="64"/>
       <c r="B102" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="55"/>
+      <c r="C102" s="70"/>
     </row>
     <row r="103" spans="1:3" ht="16">
-      <c r="A103" s="53"/>
+      <c r="A103" s="64"/>
       <c r="B103" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="55"/>
+      <c r="C103" s="70"/>
     </row>
     <row r="104" spans="1:3" ht="16">
-      <c r="A104" s="53"/>
+      <c r="A104" s="64"/>
       <c r="B104" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="55"/>
+      <c r="C104" s="70"/>
     </row>
     <row r="105" spans="1:3" ht="16">
-      <c r="A105" s="59"/>
+      <c r="A105" s="68"/>
       <c r="B105" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="60"/>
+      <c r="C105" s="71"/>
     </row>
     <row r="106" spans="1:3" ht="16">
-      <c r="A106" s="52">
+      <c r="A106" s="63">
         <v>9.6999999999999993</v>
       </c>
       <c r="B106" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="54">
+      <c r="C106" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16">
-      <c r="A107" s="53"/>
+      <c r="A107" s="64"/>
       <c r="B107" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="55"/>
+      <c r="C107" s="70"/>
     </row>
     <row r="108" spans="1:3" ht="16">
-      <c r="A108" s="59"/>
+      <c r="A108" s="68"/>
       <c r="B108" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="55"/>
+      <c r="C108" s="70"/>
     </row>
     <row r="109" spans="1:3" ht="16">
-      <c r="A109" s="52">
+      <c r="A109" s="63">
         <v>9.8000000000000007</v>
       </c>
       <c r="B109" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="55"/>
+      <c r="C109" s="70"/>
     </row>
     <row r="110" spans="1:3" ht="16">
-      <c r="A110" s="53"/>
+      <c r="A110" s="64"/>
       <c r="B110" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="55"/>
+      <c r="C110" s="70"/>
     </row>
     <row r="111" spans="1:3" ht="16">
-      <c r="A111" s="59"/>
+      <c r="A111" s="68"/>
       <c r="B111" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="55"/>
+      <c r="C111" s="70"/>
     </row>
     <row r="112" spans="1:3" ht="16">
-      <c r="A112" s="52">
+      <c r="A112" s="63">
         <v>9.9</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="55"/>
+      <c r="C112" s="70"/>
     </row>
     <row r="113" spans="1:3" ht="16">
-      <c r="A113" s="53"/>
+      <c r="A113" s="64"/>
       <c r="B113" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="55"/>
+      <c r="C113" s="70"/>
     </row>
     <row r="114" spans="1:3" ht="16">
-      <c r="A114" s="53"/>
+      <c r="A114" s="64"/>
       <c r="B114" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="55"/>
+      <c r="C114" s="70"/>
     </row>
     <row r="115" spans="1:3" ht="16">
-      <c r="A115" s="59"/>
+      <c r="A115" s="68"/>
       <c r="B115" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C115" s="60"/>
+      <c r="C115" s="71"/>
     </row>
     <row r="116" spans="1:3" ht="16">
-      <c r="A116" s="54">
+      <c r="A116" s="69">
         <v>9.1</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="54">
+      <c r="C116" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16">
-      <c r="A117" s="55"/>
+      <c r="A117" s="70"/>
       <c r="B117" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="55"/>
+      <c r="C117" s="70"/>
     </row>
     <row r="118" spans="1:3" ht="16">
-      <c r="A118" s="55"/>
+      <c r="A118" s="70"/>
       <c r="B118" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="55"/>
+      <c r="C118" s="70"/>
     </row>
     <row r="119" spans="1:3" ht="16">
-      <c r="A119" s="55"/>
+      <c r="A119" s="70"/>
       <c r="B119" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="55"/>
+      <c r="C119" s="70"/>
     </row>
     <row r="120" spans="1:3" ht="16">
-      <c r="A120" s="60"/>
+      <c r="A120" s="71"/>
       <c r="B120" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C120" s="60"/>
+      <c r="C120" s="71"/>
     </row>
     <row r="121" spans="1:3" ht="16">
       <c r="A121" s="23">
@@ -7266,319 +7266,319 @@
       <c r="B121" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C121" s="54">
+      <c r="C121" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="16">
-      <c r="A122" s="52">
+      <c r="A122" s="63">
         <v>10.1</v>
       </c>
       <c r="B122" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="55"/>
+      <c r="C122" s="70"/>
     </row>
     <row r="123" spans="1:3" ht="16">
-      <c r="A123" s="53"/>
+      <c r="A123" s="64"/>
       <c r="B123" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C123" s="55"/>
+      <c r="C123" s="70"/>
     </row>
     <row r="124" spans="1:3" ht="16">
-      <c r="A124" s="53"/>
+      <c r="A124" s="64"/>
       <c r="B124" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C124" s="55"/>
+      <c r="C124" s="70"/>
     </row>
     <row r="125" spans="1:3" ht="16">
-      <c r="A125" s="53"/>
+      <c r="A125" s="64"/>
       <c r="B125" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="55"/>
+      <c r="C125" s="70"/>
     </row>
     <row r="126" spans="1:3" ht="16">
-      <c r="A126" s="53"/>
+      <c r="A126" s="64"/>
       <c r="B126" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="55"/>
+      <c r="C126" s="70"/>
     </row>
     <row r="127" spans="1:3" ht="16">
-      <c r="A127" s="53"/>
+      <c r="A127" s="64"/>
       <c r="B127" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="55"/>
+      <c r="C127" s="70"/>
     </row>
     <row r="128" spans="1:3" ht="16">
-      <c r="A128" s="53"/>
+      <c r="A128" s="64"/>
       <c r="B128" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C128" s="55"/>
+      <c r="C128" s="70"/>
     </row>
     <row r="129" spans="1:3" ht="16">
-      <c r="A129" s="53"/>
+      <c r="A129" s="64"/>
       <c r="B129" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="55"/>
+      <c r="C129" s="70"/>
     </row>
     <row r="130" spans="1:3" ht="16">
-      <c r="A130" s="53"/>
+      <c r="A130" s="64"/>
       <c r="B130" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C130" s="55"/>
+      <c r="C130" s="70"/>
     </row>
     <row r="131" spans="1:3" ht="16">
-      <c r="A131" s="53"/>
+      <c r="A131" s="64"/>
       <c r="B131" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="55"/>
+      <c r="C131" s="70"/>
     </row>
     <row r="132" spans="1:3" ht="16">
-      <c r="A132" s="53"/>
+      <c r="A132" s="64"/>
       <c r="B132" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="55"/>
+      <c r="C132" s="70"/>
     </row>
     <row r="133" spans="1:3" ht="16">
-      <c r="A133" s="53"/>
+      <c r="A133" s="64"/>
       <c r="B133" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="55"/>
+      <c r="C133" s="70"/>
     </row>
     <row r="134" spans="1:3" ht="16">
-      <c r="A134" s="53"/>
+      <c r="A134" s="64"/>
       <c r="B134" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C134" s="55"/>
+      <c r="C134" s="70"/>
     </row>
     <row r="135" spans="1:3" ht="16">
-      <c r="A135" s="53"/>
+      <c r="A135" s="64"/>
       <c r="B135" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="55"/>
+      <c r="C135" s="70"/>
     </row>
     <row r="136" spans="1:3" ht="16">
-      <c r="A136" s="53"/>
+      <c r="A136" s="64"/>
       <c r="B136" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="55"/>
+      <c r="C136" s="70"/>
     </row>
     <row r="137" spans="1:3" ht="16">
-      <c r="A137" s="53"/>
+      <c r="A137" s="64"/>
       <c r="B137" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C137" s="55"/>
+      <c r="C137" s="70"/>
     </row>
     <row r="138" spans="1:3" ht="16">
-      <c r="A138" s="53"/>
+      <c r="A138" s="64"/>
       <c r="B138" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="55"/>
+      <c r="C138" s="70"/>
     </row>
     <row r="139" spans="1:3" ht="16">
-      <c r="A139" s="53"/>
+      <c r="A139" s="64"/>
       <c r="B139" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="55"/>
+      <c r="C139" s="70"/>
     </row>
     <row r="140" spans="1:3" ht="16">
-      <c r="A140" s="53"/>
+      <c r="A140" s="64"/>
       <c r="B140" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="55"/>
+      <c r="C140" s="70"/>
     </row>
     <row r="141" spans="1:3" ht="16">
-      <c r="A141" s="53"/>
+      <c r="A141" s="64"/>
       <c r="B141" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="55"/>
+      <c r="C141" s="70"/>
     </row>
     <row r="142" spans="1:3" ht="16">
-      <c r="A142" s="52">
+      <c r="A142" s="63">
         <v>10.199999999999999</v>
       </c>
       <c r="B142" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="55"/>
+      <c r="C142" s="70"/>
     </row>
     <row r="143" spans="1:3" ht="16">
-      <c r="A143" s="53"/>
+      <c r="A143" s="64"/>
       <c r="B143" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="55"/>
+      <c r="C143" s="70"/>
     </row>
     <row r="144" spans="1:3" ht="16">
-      <c r="A144" s="53"/>
+      <c r="A144" s="64"/>
       <c r="B144" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="55"/>
+      <c r="C144" s="70"/>
     </row>
     <row r="145" spans="1:3" ht="16">
-      <c r="A145" s="53"/>
+      <c r="A145" s="64"/>
       <c r="B145" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="55"/>
+      <c r="C145" s="70"/>
     </row>
     <row r="146" spans="1:3" ht="16">
-      <c r="A146" s="53"/>
+      <c r="A146" s="64"/>
       <c r="B146" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="55"/>
+      <c r="C146" s="70"/>
     </row>
     <row r="147" spans="1:3" ht="16">
-      <c r="A147" s="53"/>
+      <c r="A147" s="64"/>
       <c r="B147" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="55"/>
+      <c r="C147" s="70"/>
     </row>
     <row r="148" spans="1:3" ht="16">
-      <c r="A148" s="53"/>
+      <c r="A148" s="64"/>
       <c r="B148" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="55"/>
+      <c r="C148" s="70"/>
     </row>
     <row r="149" spans="1:3" ht="16">
-      <c r="A149" s="53"/>
+      <c r="A149" s="64"/>
       <c r="B149" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="55"/>
+      <c r="C149" s="70"/>
     </row>
     <row r="150" spans="1:3" ht="16">
-      <c r="A150" s="53"/>
+      <c r="A150" s="64"/>
       <c r="B150" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="55"/>
+      <c r="C150" s="70"/>
     </row>
     <row r="151" spans="1:3" ht="16">
-      <c r="A151" s="53"/>
+      <c r="A151" s="64"/>
       <c r="B151" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="55"/>
+      <c r="C151" s="70"/>
     </row>
     <row r="152" spans="1:3" ht="16">
-      <c r="A152" s="53"/>
+      <c r="A152" s="64"/>
       <c r="B152" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="55"/>
+      <c r="C152" s="70"/>
     </row>
     <row r="153" spans="1:3" ht="16">
-      <c r="A153" s="53"/>
+      <c r="A153" s="64"/>
       <c r="B153" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="55"/>
+      <c r="C153" s="70"/>
     </row>
     <row r="154" spans="1:3" ht="16">
-      <c r="A154" s="59"/>
+      <c r="A154" s="68"/>
       <c r="B154" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="60"/>
+      <c r="C154" s="71"/>
     </row>
     <row r="155" spans="1:3" ht="16">
-      <c r="A155" s="52">
+      <c r="A155" s="63">
         <v>10.3</v>
       </c>
       <c r="B155" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C155" s="54">
+      <c r="C155" s="69">
         <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="16">
-      <c r="A156" s="53"/>
+      <c r="A156" s="64"/>
       <c r="B156" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="55"/>
+      <c r="C156" s="70"/>
     </row>
     <row r="157" spans="1:3" ht="16">
-      <c r="A157" s="53"/>
+      <c r="A157" s="64"/>
       <c r="B157" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C157" s="55"/>
+      <c r="C157" s="70"/>
     </row>
     <row r="158" spans="1:3" ht="16">
-      <c r="A158" s="52">
+      <c r="A158" s="63">
         <v>10.4</v>
       </c>
       <c r="B158" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="54">
+      <c r="C158" s="69">
         <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16">
-      <c r="A159" s="53"/>
+      <c r="A159" s="64"/>
       <c r="B159" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C159" s="55"/>
+      <c r="C159" s="70"/>
     </row>
     <row r="160" spans="1:3" ht="16">
-      <c r="A160" s="53"/>
+      <c r="A160" s="64"/>
       <c r="B160" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="55"/>
+      <c r="C160" s="70"/>
     </row>
     <row r="161" spans="1:3" ht="16">
-      <c r="A161" s="52">
+      <c r="A161" s="63">
         <v>10.5</v>
       </c>
       <c r="B161" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="54">
+      <c r="C161" s="69">
         <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="16">
-      <c r="A162" s="53"/>
+      <c r="A162" s="64"/>
       <c r="B162" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C162" s="55"/>
+      <c r="C162" s="70"/>
     </row>
     <row r="163" spans="1:3" ht="16">
-      <c r="A163" s="53"/>
+      <c r="A163" s="64"/>
       <c r="B163" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="55"/>
+      <c r="C163" s="70"/>
     </row>
     <row r="164" spans="1:3" ht="16">
       <c r="A164" s="9">
@@ -7587,7 +7587,7 @@
       <c r="B164" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="56">
+      <c r="C164" s="72">
         <v>0.5</v>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       <c r="B165" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="56"/>
+      <c r="C165" s="72"/>
     </row>
     <row r="166" spans="1:3" ht="16">
       <c r="A166" s="17">
@@ -7607,23 +7607,23 @@
       <c r="B166" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C166" s="56"/>
+      <c r="C166" s="72"/>
     </row>
     <row r="167" spans="1:3" ht="16">
-      <c r="A167" s="57">
+      <c r="A167" s="62">
         <v>6.3</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="56"/>
+      <c r="C167" s="72"/>
     </row>
     <row r="168" spans="1:3" ht="16">
-      <c r="A168" s="57"/>
+      <c r="A168" s="62"/>
       <c r="B168" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C168" s="56"/>
+      <c r="C168" s="72"/>
     </row>
     <row r="169" spans="1:3" ht="16">
       <c r="A169" s="9">
@@ -7632,110 +7632,116 @@
       <c r="B169" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="58">
+      <c r="C169" s="74">
         <v>0.75</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="16">
-      <c r="A170" s="57">
+      <c r="A170" s="62">
         <v>7.1</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C170" s="58"/>
+      <c r="C170" s="74"/>
     </row>
     <row r="171" spans="1:3" ht="16">
-      <c r="A171" s="57"/>
+      <c r="A171" s="62"/>
       <c r="B171" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C171" s="58"/>
+      <c r="C171" s="74"/>
     </row>
     <row r="172" spans="1:3" ht="16">
-      <c r="A172" s="57"/>
+      <c r="A172" s="62"/>
       <c r="B172" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="58"/>
+      <c r="C172" s="74"/>
     </row>
     <row r="173" spans="1:3" ht="16">
-      <c r="A173" s="57">
+      <c r="A173" s="62">
         <v>7.2</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="58"/>
+      <c r="C173" s="74"/>
     </row>
     <row r="174" spans="1:3" ht="16">
-      <c r="A174" s="57"/>
+      <c r="A174" s="62"/>
       <c r="B174" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C174" s="58"/>
+      <c r="C174" s="74"/>
     </row>
     <row r="175" spans="1:3" ht="16">
-      <c r="A175" s="57"/>
+      <c r="A175" s="62"/>
       <c r="B175" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C175" s="58"/>
+      <c r="C175" s="74"/>
     </row>
     <row r="176" spans="1:3" ht="16">
-      <c r="A176" s="57">
+      <c r="A176" s="62">
         <v>7.3</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C176" s="58"/>
+      <c r="C176" s="74"/>
     </row>
     <row r="177" spans="1:3" ht="16">
-      <c r="A177" s="57"/>
+      <c r="A177" s="62"/>
       <c r="B177" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="58"/>
+      <c r="C177" s="74"/>
     </row>
     <row r="178" spans="1:3" ht="16">
-      <c r="A178" s="57"/>
+      <c r="A178" s="62"/>
       <c r="B178" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C178" s="58"/>
+      <c r="C178" s="74"/>
     </row>
     <row r="179" spans="1:3" ht="16">
-      <c r="A179" s="57"/>
+      <c r="A179" s="62"/>
       <c r="B179" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C179" s="58"/>
+      <c r="C179" s="74"/>
     </row>
     <row r="180" spans="1:3" ht="16">
-      <c r="A180" s="57"/>
+      <c r="A180" s="62"/>
       <c r="B180" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="58"/>
+      <c r="C180" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C18:C30"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="C5:C17"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C40:C52"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C164:C168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="C169:C180"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="C106:C115"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="C121:C154"/>
+    <mergeCell ref="A122:A141"/>
+    <mergeCell ref="A142:A154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="C97:C105"/>
     <mergeCell ref="A101:A105"/>
@@ -7752,27 +7758,21 @@
     <mergeCell ref="A87:A90"/>
     <mergeCell ref="A91:A93"/>
     <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="C106:C115"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="C121:C154"/>
-    <mergeCell ref="A122:A141"/>
-    <mergeCell ref="A142:A154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C164:C168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="C169:C180"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A180"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C40:C52"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C18:C30"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -7785,7 +7785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD628D5-ED78-411C-81DD-A462538232A5}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
